--- a/Hoàng/2025/CÔNG TY TNHH TK ELEVATOR VIỆT NAM/DS, DM - CÔNG TY TNHH TK ELEVATOR VIỆT NAM.xlsx
+++ b/Hoàng/2025/CÔNG TY TNHH TK ELEVATOR VIỆT NAM/DS, DM - CÔNG TY TNHH TK ELEVATOR VIỆT NAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA-TN\Hoàng\2025\CÔNG TY TNHH TK ELEVATOR VIỆT NAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E85EFE-6C78-412A-9219-42645F87BF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59164E7-D038-4511-8836-9C4F0DE8690B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
   <si>
     <t>STT</t>
   </si>
@@ -268,12 +268,36 @@
   <si>
     <t xml:space="preserve">Tư vấn điều trị toàn bộ các kết quả khám </t>
   </si>
+  <si>
+    <t>MÃ NV</t>
+  </si>
+  <si>
+    <t>NV01</t>
+  </si>
+  <si>
+    <t>NV02</t>
+  </si>
+  <si>
+    <t>NV03</t>
+  </si>
+  <si>
+    <t>NV04</t>
+  </si>
+  <si>
+    <t>NV05</t>
+  </si>
+  <si>
+    <t>NV06</t>
+  </si>
+  <si>
+    <t>NV07</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +364,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -539,28 +569,43 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -571,21 +616,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -867,133 +897,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>1976</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>1984</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>1982</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>1994</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>1987</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>1982</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>1980</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1018,10 +1074,10 @@
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="27"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="7" t="s">
         <v>14</v>
       </c>
@@ -1030,66 +1086,66 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="39" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="35">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="35"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="28"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="35"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="28"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="35"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="28"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="35"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="30"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="36"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
@@ -1242,7 +1298,7 @@
       <c r="A17" s="9">
         <v>11</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="26" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -1251,7 +1307,7 @@
       <c r="D17" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="28">
         <v>7</v>
       </c>
     </row>
@@ -1259,20 +1315,20 @@
       <c r="A18" s="9">
         <v>12</v>
       </c>
-      <c r="B18" s="33"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="17" t="s">
         <v>50</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="38"/>
+      <c r="E18" s="29"/>
     </row>
     <row r="19" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>13</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="30" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="17" t="s">
@@ -1289,7 +1345,7 @@
       <c r="A20" s="9">
         <v>14</v>
       </c>
-      <c r="B20" s="40"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="17" t="s">
         <v>54</v>
       </c>
@@ -1304,7 +1360,7 @@
       <c r="A21" s="9">
         <v>15</v>
       </c>
-      <c r="B21" s="40"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="17" t="s">
         <v>56</v>
       </c>
@@ -1319,7 +1375,7 @@
       <c r="A22" s="9">
         <v>16</v>
       </c>
-      <c r="B22" s="41"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="17" t="s">
         <v>58</v>
       </c>
